--- a/results/mp/deberta/corona/confidence/42/stop-words-desired-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-desired-0.35/avg_0.003_scores.xlsx
@@ -121,12 +121,12 @@
     <t>safety</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -154,19 +154,19 @@
     <t>save</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>easter</t>
   </si>
   <si>
     <t>hope</t>
@@ -1418,25 +1418,25 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.73568281938326</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L24">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="M24">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1444,25 +1444,25 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.7111111111111111</v>
+        <v>0.698744769874477</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>167</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="N25">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1704,25 +1704,25 @@
         <v>46</v>
       </c>
       <c r="K35">
-        <v>0.6238532110091743</v>
+        <v>0.62</v>
       </c>
       <c r="L35">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="N35">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>123</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1730,25 +1730,25 @@
         <v>47</v>
       </c>
       <c r="K36">
-        <v>0.62</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1756,25 +1756,25 @@
         <v>48</v>
       </c>
       <c r="K37">
-        <v>0.6153846153846154</v>
+        <v>0.6129032258064516</v>
       </c>
       <c r="L37">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>0.86</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1788,16 +1788,16 @@
         <v>19</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N38">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>12</v>
@@ -1808,13 +1808,13 @@
         <v>50</v>
       </c>
       <c r="K39">
-        <v>0.6129032258064516</v>
+        <v>0.6</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="10:17">
